--- a/tests/PL.xlsx
+++ b/tests/PL.xlsx
@@ -698,7 +698,7 @@
         </is>
       </c>
       <c r="B3" s="28" t="n">
-        <v>45265</v>
+        <v>45621</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="18">
